--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1258748.655115973</v>
+        <v>-1260646.887220096</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>78.9759792722994</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -707,16 +707,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>180.248410769463</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>171.3286370598813</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>56.57756245340234</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>97.31266999834207</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>259.6816650087383</v>
+        <v>325.720290706396</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>102.69516235643</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>206.0181681025915</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>312.3937252350516</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>165.4468773440099</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>28.51033041214358</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>118.3167770327492</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.61524188852295</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>47.42096235685833</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>78.36384008888471</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4.511658855087171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>250.0068403603052</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>101.0041688483411</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.47437332366368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>246.5396371619437</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>96.84207451769328</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>116.1580367970459</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789506</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463097</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522962</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463099</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463128</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789549</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>979.5885935818919</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>979.5885935818919</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>621.3228949751415</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>621.3228949751415</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>614.377394225938</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2283.873812075549</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2030.112026713641</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2030.112026713641</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1677.343371443527</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>1303.877613182447</v>
       </c>
       <c r="Y2" t="n">
-        <v>1366.188433646014</v>
+        <v>913.7382812066351</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>406.923096287203</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>152.238608081316</v>
       </c>
       <c r="W4" t="n">
-        <v>443.6717438918015</v>
+        <v>152.238608081316</v>
       </c>
       <c r="X4" t="n">
-        <v>443.6717438918015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.753525949916</v>
+        <v>1461.147548391485</v>
       </c>
       <c r="C5" t="n">
-        <v>1624.753525949916</v>
+        <v>1461.147548391485</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.487827343165</v>
+        <v>1102.881849784735</v>
       </c>
       <c r="E5" t="n">
-        <v>880.6995747449212</v>
+        <v>717.0935971864903</v>
       </c>
       <c r="F5" t="n">
-        <v>469.7136699553136</v>
+        <v>710.1480964372869</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.892857925728</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.753525949916</v>
+        <v>1461.147548391485</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4641,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>380.6911546495019</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>380.6911546495019</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>380.6911546495019</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X7" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.9219833362311</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C8" t="n">
-        <v>940.9219833362311</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D8" t="n">
-        <v>940.9219833362311</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>940.9219833362311</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>2057.634580705134</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573123</v>
+        <v>1704.86592543502</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312043</v>
+        <v>1331.40016717394</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362311</v>
+        <v>941.2608351981287</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761946</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482877</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>608.6170882137585</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>608.6170882137585</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>608.6170882137585</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>608.6170882137585</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>608.6170882137585</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>608.6170882137585</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>380.6275373157412</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2497.969180129611</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5361,22 +5361,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>760.7169704793927</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C16" t="n">
-        <v>712.8170085027681</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D16" t="n">
-        <v>562.7003690904323</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5446,40 +5446,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557901</v>
+        <v>1419.760876528726</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557901</v>
+        <v>1219.840866444278</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557901</v>
+        <v>1219.840866444278</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557901</v>
+        <v>930.7122276578364</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557901</v>
+        <v>930.7122276578364</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.49910052094</v>
+        <v>641.2950576208757</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5095496229228</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y16" t="n">
-        <v>760.7169704793927</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1383.283935952973</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.283935952973</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.283935952973</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1128.599447747086</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>839.1822777101255</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X19" t="n">
-        <v>611.1927268121082</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>390.400147668578</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>199.2415044384082</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>991.90339746128</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V22" t="n">
-        <v>737.2189092553931</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W22" t="n">
-        <v>447.8017392184324</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X22" t="n">
-        <v>447.8017392184324</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>199.2415044384082</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,16 +6069,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141292</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
         <v>1808.163466324677</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>537.0522699493032</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>247.6350999123426</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X25" t="n">
-        <v>247.6350999123426</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,22 +6239,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>154.3878371814097</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>303.4575213834695</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706323</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706323</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>414.0663679705859</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011342</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1966.019627967827</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2486.320249703574</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6604,28 +6604,28 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504509</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6686,16 +6686,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6707,22 +6707,22 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716569</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7406,49 +7406,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649693</v>
@@ -7816,10 +7816,10 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
@@ -7834,10 +7834,10 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>38.86002301949857</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>349.7653003338569</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>145.2351313103795</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>308.125109627204</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,19 +9717,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>360.502686290725</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>15.83804904622848</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>50.62661940943505</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929754</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>39.88923345256728</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>62.79465928983132</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>94.13752431970607</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,10 +22765,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>173.2633437802947</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>128.3969853906951</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2167382934144</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,22 +23653,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>119.8258587417695</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>31.60051231490809</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>193.4091511285161</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>36.51615797628583</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>66.2426522502867</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.7629790749137</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>5.598006161884257</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24601,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>124.705486540696</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>109.5516185919912</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26338,22 +26338,22 @@
         <v>136860.1709081981</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262493</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262493</v>
+        <v>143682.3097262494</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262494</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371251</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161410.6210996772</v>
+        <v>161410.6210996773</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26424,37 +26424,37 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819115</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819117</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819115</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26470,22 +26470,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-691849.8303067865</v>
+        <v>-691868.324044721</v>
       </c>
       <c r="C6" t="n">
         <v>-104809.6361236841</v>
@@ -26528,40 +26528,40 @@
         <v>-104809.6361236842</v>
       </c>
       <c r="E6" t="n">
-        <v>-502461.7991042853</v>
+        <v>-502559.2582302576</v>
       </c>
       <c r="F6" t="n">
-        <v>22698.23737261075</v>
+        <v>22600.77824663864</v>
       </c>
       <c r="G6" t="n">
-        <v>22698.23737261085</v>
+        <v>22600.77824663869</v>
       </c>
       <c r="H6" t="n">
-        <v>22698.23737261079</v>
+        <v>22600.7782466386</v>
       </c>
       <c r="I6" t="n">
-        <v>22698.23737261076</v>
+        <v>22600.77824663863</v>
       </c>
       <c r="J6" t="n">
-        <v>-153724.9818199822</v>
+        <v>-153822.4409459544</v>
       </c>
       <c r="K6" t="n">
-        <v>-53131.70302567982</v>
+        <v>-53131.70302567937</v>
       </c>
       <c r="L6" t="n">
-        <v>1373.809078032733</v>
+        <v>1373.809078032806</v>
       </c>
       <c r="M6" t="n">
-        <v>-133427.206155804</v>
+        <v>-133427.2061558041</v>
       </c>
       <c r="N6" t="n">
-        <v>1373.809078032835</v>
+        <v>1373.809078033082</v>
       </c>
       <c r="O6" t="n">
-        <v>1373.809078033082</v>
+        <v>1373.80907803314</v>
       </c>
       <c r="P6" t="n">
-        <v>-53131.70302567946</v>
+        <v>-53131.70302567966</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>334.8081907484956</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>36.19990958819474</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>114.9532371820964</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>56.68209210289399</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>154.1025050120567</v>
+        <v>88.063879314399</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>183.5867118855477</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>19.69148728644561</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>94.48232050665979</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>162.305381126125</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>120.1051426060688</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>28.34841494740867</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33193,13 +33193,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647497</v>
@@ -33214,7 +33214,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33269,7 +33269,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813463</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,10 +33330,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
         <v>45.03122946298631</v>
@@ -33342,10 +33342,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
@@ -33354,7 +33354,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,13 +33366,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33430,13 +33430,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33451,7 +33451,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,10 +33567,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33579,10 +33579,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33591,7 +33591,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,13 +33603,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>126.8730558045727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35729,25 +35729,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>599.0230052898812</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056021</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206028</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>427.5988335514877</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>641.3196830252168</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>642.8663885318332</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>57.74822800113516</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36841,19 +36841,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560244</v>
@@ -36920,16 +36920,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>138.6396521945092</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37075,22 +37075,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560244</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780496</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>289.1469384085916</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>269.888074221356</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520624</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
@@ -37719,7 +37719,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,10 +37874,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>376.5012265608142</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
